--- a/build/exe.win-amd64-3.8/res/ステージデータ.xlsx
+++ b/build/exe.win-amd64-3.8/res/ステージデータ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PyCharm Project\shobon\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7514EF-E51C-4748-A9B1-81956148E58F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71E0D79-880E-4C98-B7A4-D6A9F13A039E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
